--- a/01_Input/00_CO Validation/Madagascar - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Madagascar - Energy Projects.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekouedjenevrardkarol/Documents/DONNEES EVRARD/Offre Energie PNUD actualisée/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="13_ncr:1_{3994DE0F-CBBE-EE48-9EC1-1A8586B13E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD4212C-8B8D-4B11-B894-2BA6907F61D2}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{3994DE0F-CBBE-EE48-9EC1-1A8586B13E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83286E6E-D089-420B-BB2B-F21B978A5029}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projects (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="Projects" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
+    <sheet name="Projects (3)" sheetId="5" r:id="rId1"/>
+    <sheet name="Projects (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Beneficiary Categories" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,6 +42,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={11484F6E-76AC-46DF-860C-384CC606F360}</author>
+  </authors>
+  <commentList>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{11484F6E-76AC-46DF-860C-384CC606F360}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This project seems to have two IDs in Quantum</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={627D9D03-17DC-483F-B04C-78289CE62CA3}</author>
   </authors>
   <commentList>
@@ -56,7 +75,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={EFB6909A-CD9A-4739-AC68-5FE8E92C6DCE}</author>
@@ -75,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="96">
   <si>
     <t>Project ID</t>
   </si>
@@ -144,6 +163,9 @@
   </si>
   <si>
     <t>number of isolated households with access to a nano-power grid</t>
+  </si>
+  <si>
+    <t>50 HH</t>
   </si>
   <si>
     <t>Note for CO: Missing targets for some outputs (all outputs need quantified targets). Please also check Project IDs and titles: the titles are the project titles, and each project should have a single ID.</t>
@@ -183,9 +205,6 @@
     <t xml:space="preserve">Résilience &amp; Dvpt Territorial </t>
   </si>
   <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
     <t>number of households connected to the power grid</t>
   </si>
   <si>
@@ -198,7 +217,7 @@
     <t>Education Services</t>
   </si>
   <si>
-    <t>number of public schools with access to energy</t>
+    <t>number of public school students with access to energy</t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -210,7 +229,7 @@
     <t>Health Services</t>
   </si>
   <si>
-    <t>number of hospitals benefiting from a clean energy source</t>
+    <t>number of hospital patients benefiting from a clean energy source</t>
   </si>
   <si>
     <t>5 hospitals are operational, commissionned</t>
@@ -226,40 +245,52 @@
 A household can consume around 1 to 2 kg of charcoal and/or 5 kg of wood per day. Assuming that half of the planned cooking stoves are wood-burning and the other half charcoal-burning, and assuming an energy efficiency of 50 percent, we get this result. The amount of fuel avoided is 3250 kg per day, including 750 kg of charcoal.</t>
   </si>
   <si>
+    <t>UNDP-MDG-00123355</t>
+  </si>
+  <si>
+    <t>Financement Intégré Energies R</t>
+  </si>
+  <si>
+    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solar &amp; hydro power generation </t>
+  </si>
+  <si>
+    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
+  </si>
+  <si>
+    <t>Bioethanol</t>
+  </si>
+  <si>
+    <t>Entrepreneurship Training</t>
+  </si>
+  <si>
+    <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
+  </si>
+  <si>
+    <t>The incubator's objective is to incubate/accelerate 15 companies/projects per incubation cycle, i.e. a total of 45 companies or start-ups.</t>
+  </si>
+  <si>
+    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>number of public schools with access to energy</t>
+  </si>
+  <si>
+    <t>number of hospitals benefiting from a clean energy source</t>
+  </si>
+  <si>
     <t>annual revenue</t>
   </si>
   <si>
-    <t>UNDP-MDG-00123355</t>
-  </si>
-  <si>
-    <t>Financement Intégré Energies R</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar &amp; hydro power generation </t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Bioethanol</t>
-  </si>
-  <si>
-    <t>Entrepreneurship Training</t>
-  </si>
-  <si>
-    <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
-  </si>
-  <si>
-    <t>The incubator's objective is to incubate/accelerate 15 companies/projects per incubation cycle, i.e. a total of 45 companies or start-ups.</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
   </si>
   <si>
     <t xml:space="preserve">Comments </t>
@@ -360,7 +391,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -406,7 +437,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,8 +498,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -543,11 +580,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -608,33 +726,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -644,15 +735,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -664,45 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -716,6 +759,156 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,13 +1220,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A7" dT="2023-07-14T07:02:41.22" personId="{2FAA20FA-7B65-4402-A66A-B9C81499D4BD}" id="{11484F6E-76AC-46DF-860C-384CC606F360}">
+    <text>This project seems to have two IDs in Quantum</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A7" dT="2023-07-14T07:02:41.22" personId="{2FAA20FA-7B65-4402-A66A-B9C81499D4BD}" id="{627D9D03-17DC-483F-B04C-78289CE62CA3}">
     <text>This project seems to have two IDs in Quantum</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A7" dT="2023-07-14T07:02:41.22" personId="{2FAA20FA-7B65-4402-A66A-B9C81499D4BD}" id="{EFB6909A-CD9A-4739-AC68-5FE8E92C6DCE}">
     <text>This project seems to have two IDs in Quantum</text>
@@ -1042,609 +1243,1204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26D601F-6277-4308-94C5-4B46BE1AE938}">
-  <dimension ref="A1:S28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B81A14-83DD-43C1-A18A-C22B7DB8731B}">
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="54" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="54" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="54" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="54" customWidth="1"/>
-    <col min="6" max="6" width="35" style="55" customWidth="1"/>
-    <col min="7" max="7" width="17" style="58" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="55" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="55" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="54"/>
-    <col min="13" max="13" width="56.85546875" style="54" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="54"/>
+    <col min="1" max="1" width="21.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="35" style="30" customWidth="1"/>
+    <col min="7" max="7" width="17" style="33" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="30" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="29"/>
+    <col min="13" max="13" width="56.85546875" style="29" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="45.75">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="53">
+      <c r="C2" s="52"/>
+      <c r="D2" s="44">
         <v>824590</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="38">
-        <v>0</v>
-      </c>
-      <c r="H2" s="37">
+      <c r="G2" s="62">
+        <v>0</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="61"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="45.75">
+      <c r="A3" s="59"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="62">
+        <v>0</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+    </row>
+    <row r="4" spans="1:19" s="8" customFormat="1" ht="45.75">
+      <c r="A4" s="57"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="62">
+        <v>0</v>
+      </c>
+      <c r="H4" s="61">
+        <v>150</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+    </row>
+    <row r="5" spans="1:19" s="8" customFormat="1">
+      <c r="A5" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="45">
+        <v>54790.12</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="62">
+        <v>0</v>
+      </c>
+      <c r="H5" s="61">
+        <v>0</v>
+      </c>
+      <c r="I5" s="61"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+    </row>
+    <row r="6" spans="1:19" s="8" customFormat="1" ht="30.75">
+      <c r="A6" s="57"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="62">
+        <v>0</v>
+      </c>
+      <c r="H6" s="61">
+        <v>0</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+    </row>
+    <row r="7" spans="1:19" s="8" customFormat="1" ht="30.75">
+      <c r="A7" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="45">
+        <v>2286000</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="62">
+        <v>0</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" s="8" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="64">
+        <v>0</v>
+      </c>
+      <c r="H8" s="63">
+        <v>300</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+    </row>
+    <row r="9" spans="1:19" s="8" customFormat="1" ht="30.75">
+      <c r="A9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="62">
+        <v>0</v>
+      </c>
+      <c r="H9" s="61">
+        <v>63</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:19" s="8" customFormat="1" ht="30.75">
+      <c r="A10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="45">
+        <v>1107801</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="64">
+        <v>0</v>
+      </c>
+      <c r="H10" s="63">
+        <v>150000</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="1:19" s="8" customFormat="1" ht="153" customHeight="1">
+      <c r="A11" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="44">
+        <v>54458</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="62">
+        <v>0</v>
+      </c>
+      <c r="H11" s="61">
+        <v>3250</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+    </row>
+    <row r="12" spans="1:19" s="8" customFormat="1" ht="45.75">
+      <c r="A12" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="45">
+        <v>8748560</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="62">
+        <v>29600</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+    </row>
+    <row r="13" spans="1:19" s="8" customFormat="1" ht="45.75">
+      <c r="A13" s="38"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="62">
+        <v>0</v>
+      </c>
+      <c r="H13" s="62">
+        <v>8400</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" spans="1:19" s="8" customFormat="1" ht="45.75">
+      <c r="A14" s="38"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="62">
+        <v>0</v>
+      </c>
+      <c r="H14" s="62">
+        <v>45</v>
+      </c>
+      <c r="I14" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+    </row>
+    <row r="15" spans="1:19" s="8" customFormat="1" ht="45.75">
+      <c r="A15" s="39"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="62">
+        <v>42000</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="32"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="G27" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6391180-236B-478C-9886-17345DBB77D7}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E31</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26D601F-6277-4308-94C5-4B46BE1AE938}">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="35" style="30" customWidth="1"/>
+    <col min="7" max="7" width="17" style="33" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="30" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="29"/>
+    <col min="13" max="13" width="56.85546875" style="29" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="45.75">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="8" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A2" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="44">
+        <v>824590</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
+      </c>
+      <c r="H2" s="25">
+        <v>50</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1" ht="45.75">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="37" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="38">
-        <v>0</v>
-      </c>
-      <c r="H3" s="37" t="s">
+      <c r="F3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1" ht="45.75">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="37" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="38">
-        <v>0</v>
-      </c>
-      <c r="H4" s="37">
+      <c r="F4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
         <v>150</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:19" s="8" customFormat="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="53">
+      <c r="C5" s="55"/>
+      <c r="D5" s="45">
         <v>54790.12</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="38">
-        <v>0</v>
-      </c>
-      <c r="H5" s="37">
-        <v>0</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
+      <c r="F5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="1:19" s="8" customFormat="1" ht="30.75">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="37" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="38">
-        <v>0</v>
-      </c>
-      <c r="H6" s="37">
-        <v>0</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="F6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" s="8" customFormat="1" ht="30.75">
-      <c r="A7" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="53">
+      <c r="B7" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="45">
         <v>2286000</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" s="8" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="26">
+        <v>6</v>
+      </c>
+      <c r="H8" s="25">
+        <v>8</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+    </row>
+    <row r="9" spans="1:19" s="8" customFormat="1" ht="30.75">
+      <c r="A9" s="39"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>63</v>
+      </c>
+      <c r="I9" s="25"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+    </row>
+    <row r="10" spans="1:19" s="8" customFormat="1" ht="30.75">
+      <c r="A10" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="45">
+        <v>1107801</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>5</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" spans="1:19" s="8" customFormat="1" ht="153" customHeight="1">
+      <c r="A11" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-    </row>
-    <row r="8" spans="1:19" s="8" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="38">
-        <v>6</v>
-      </c>
-      <c r="H8" s="37">
-        <v>8</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-    </row>
-    <row r="9" spans="1:19" s="8" customFormat="1" ht="30.75">
-      <c r="A9" s="41"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="38">
-        <v>0</v>
-      </c>
-      <c r="H9" s="37">
+      <c r="C11" s="52"/>
+      <c r="D11" s="44">
+        <v>54458</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>3250</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+    </row>
+    <row r="12" spans="1:19" s="8" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-    </row>
-    <row r="10" spans="1:19" s="8" customFormat="1" ht="30.75">
-      <c r="A10" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="53">
-        <v>1107801</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="38">
-        <v>0</v>
-      </c>
-      <c r="H10" s="37">
-        <v>5</v>
-      </c>
-      <c r="I10" s="37" t="s">
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+    </row>
+    <row r="13" spans="1:19" s="8" customFormat="1" ht="45.75">
+      <c r="A13" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="45">
+        <v>8748560</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="26">
+        <v>29600</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" spans="1:19" s="8" customFormat="1" ht="45.75">
+      <c r="A14" s="38"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>8400</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+    </row>
+    <row r="15" spans="1:19" s="8" customFormat="1" ht="45.75">
+      <c r="A15" s="38"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
         <v>45</v>
       </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-    </row>
-    <row r="11" spans="1:19" s="8" customFormat="1" ht="88.5" customHeight="1">
-      <c r="A11" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="53">
-        <v>54458</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="38">
-        <v>0</v>
-      </c>
-      <c r="H11" s="37">
-        <v>3250</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-    </row>
-    <row r="12" spans="1:19" s="8" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="38">
-        <v>0</v>
-      </c>
-      <c r="H12" s="37">
-        <v>0</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-    </row>
-    <row r="13" spans="1:19" s="8" customFormat="1" ht="45.75">
-      <c r="A13" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="53">
-        <v>8748560</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="38">
-        <v>29600</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-    </row>
-    <row r="14" spans="1:19" s="8" customFormat="1" ht="45.75">
-      <c r="A14" s="41"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="38">
-        <v>0</v>
-      </c>
-      <c r="H14" s="38">
-        <v>8400</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-    </row>
-    <row r="15" spans="1:19" s="8" customFormat="1" ht="45.75">
-      <c r="A15" s="41"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="37" t="s">
+      <c r="I15" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="38">
-        <v>0</v>
-      </c>
-      <c r="H15" s="38">
-        <v>45</v>
-      </c>
-      <c r="I15" s="37" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+    </row>
+    <row r="16" spans="1:19" s="8" customFormat="1" ht="45.75">
+      <c r="A16" s="39"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-    </row>
-    <row r="16" spans="1:19" s="8" customFormat="1" ht="45.75">
-      <c r="A16" s="41"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="38">
+      <c r="G16" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="26">
         <v>42000</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="G17" s="56"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="57"/>
-      <c r="G18" s="56"/>
+      <c r="A18" s="32"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="G19" s="56"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="G20" s="56"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="G21" s="56"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="G22" s="56"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="G23" s="56"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="G24" s="56"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="G25" s="56"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="G26" s="56"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="G27" s="56"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="G28" s="56"/>
+      <c r="G28" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1665,7 +2461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -1719,19 +2515,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="50" t="s">
-        <v>62</v>
+      <c r="C2" s="75"/>
+      <c r="D2" s="68" t="s">
+        <v>66</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>21</v>
@@ -1747,19 +2543,19 @@
       </c>
       <c r="I2" s="15"/>
       <c r="K2" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45.75">
-      <c r="A3" s="45"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="16">
         <v>0</v>
@@ -1770,15 +2566,15 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="45.75">
-      <c r="A4" s="46"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="16">
         <v>0</v>
@@ -1789,21 +2585,21 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="50" t="s">
-        <v>63</v>
+      <c r="C5" s="75"/>
+      <c r="D5" s="68" t="s">
+        <v>67</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="16">
         <v>0</v>
@@ -1814,15 +2610,15 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="30.75">
-      <c r="A6" s="46"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="52"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="16">
         <v>0</v>
@@ -1833,18 +2629,18 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="30.75">
-      <c r="A7" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="50" t="s">
-        <v>64</v>
+      <c r="B7" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="68" t="s">
+        <v>68</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>36</v>
@@ -1860,15 +2656,15 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="32.1" customHeight="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G8" s="16">
         <v>6</v>
@@ -1879,10 +2675,10 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="30.75">
-      <c r="A9" s="49"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="52"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="14" t="s">
         <v>41</v>
       </c>
@@ -1906,13 +2702,13 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -1925,18 +2721,18 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="50" t="s">
-        <v>66</v>
+      <c r="B11" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="68" t="s">
+        <v>70</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>47</v>
@@ -1952,15 +2748,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.95" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="52"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
@@ -1972,41 +2768,41 @@
     </row>
     <row r="13" spans="1:11" ht="45.75">
       <c r="A13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="G13" s="16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H13" s="16">
         <v>29600</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45.75">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="25"/>
+      <c r="D14" s="77"/>
       <c r="E14" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="16">
         <v>0</v>
@@ -2015,19 +2811,19 @@
         <v>8400</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45.75">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="25"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="G15" s="16">
         <v>0</v>
@@ -2036,22 +2832,22 @@
         <v>45</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="45.75">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="26"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H16" s="16">
         <v>42000</v>
@@ -2209,7 +3005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB874B5-6B34-417B-9E99-B209DC1AA263}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2221,7 +3017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2238,160 +3034,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="27" t="s">
-        <v>70</v>
+      <c r="A2" s="80" t="s">
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="27"/>
+      <c r="A3" s="80"/>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="80"/>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="28" t="s">
-        <v>72</v>
+      <c r="A5" s="81" t="s">
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="81"/>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="28"/>
+      <c r="A7" s="81"/>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="81"/>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="81"/>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="29" t="s">
-        <v>79</v>
+      <c r="A10" s="82" t="s">
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="82"/>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="30" t="s">
-        <v>82</v>
+      <c r="A12" s="83" t="s">
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="83"/>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="83"/>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2406,59 +3202,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Evrard Karol EKOUEDJEN</DisplayName>
-        <AccountId>1139</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Isidore Agbokou</DisplayName>
-        <AccountId>2024</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kanil Lopes</DisplayName>
-        <AccountId>2025</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Karim Ali Ahmed</DisplayName>
-        <AccountId>1226</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Chibulu Luo</DisplayName>
-        <AccountId>328</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Charles Nyandiga</DisplayName>
-        <AccountId>94</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2707,7 +3450,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2716,14 +3459,67 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Evrard Karol EKOUEDJEN</DisplayName>
+        <AccountId>1139</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Isidore Agbokou</DisplayName>
+        <AccountId>2024</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kanil Lopes</DisplayName>
+        <AccountId>2025</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Karim Ali Ahmed</DisplayName>
+        <AccountId>1226</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Chibulu Luo</DisplayName>
+        <AccountId>328</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Charles Nyandiga</DisplayName>
+        <AccountId>94</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AD93942-897D-404F-9F2B-D79DF147CC1E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AD93942-897D-404F-9F2B-D79DF147CC1E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>